--- a/public/files/HeightandWeightTest.xlsx
+++ b/public/files/HeightandWeightTest.xlsx
@@ -423,7 +423,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -498,9 +498,6 @@
       <c r="F5">
         <v>200</v>
       </c>
-      <c r="G5">
-        <v>200</v>
-      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
